--- a/medicine/Psychotrope/Thé_au_géranium/Thé_au_géranium.xlsx
+++ b/medicine/Psychotrope/Thé_au_géranium/Thé_au_géranium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9_au_g%C3%A9ranium</t>
+          <t>Thé_au_géranium</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le thé au géranium est une spécialité de thé au Maghreb. Il remplace souvent le thé à la menthe en hiver quand il devient difficile de se procurer de la menthe fraiche ou pour éviter d'utiliser de la menthe séchée avec moins de goût.
 Il se prépare comme le thé à la menthe, à la différence que des feuilles de géranium frais sont mises à infuser au lieu de la menthe.
